--- a/Data_Berlin.xlsx
+++ b/Data_Berlin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/matthias.ritter/MATLAB/Covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE965C4-F6EC-C04D-8C82-24639F6A441E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C12C3-44CE-834E-B8EA-05EB47CFC2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Gemeldete Infizierte:</t>
-  </si>
-  <si>
     <t>https://www.berlin.de/sen/gpg/service/presse/2020/</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Reported infections and ICU patients:</t>
   </si>
 </sst>
 </file>
@@ -420,9 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -432,19 +430,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1340,18 +1338,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">

--- a/Data_Berlin.xlsx
+++ b/Data_Berlin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/matthias.ritter/MATLAB/Covid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasritter/Desktop/Covid-19-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C12C3-44CE-834E-B8EA-05EB47CFC2C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0111928A-3261-4340-97FF-E43B490CBB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
